--- a/initialData.xlsx
+++ b/initialData.xlsx
@@ -19,6 +19,7 @@
     <sheet name="categories" sheetId="7" r:id="rId5"/>
     <sheet name="tags" sheetId="8" r:id="rId6"/>
     <sheet name="ingredients" sheetId="6" r:id="rId7"/>
+    <sheet name="recipes" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="648">
   <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1767,22 +1768,503 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오트밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀리의 겉겨를 벗기고 가공한 음식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컵(C)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>돼지고기 김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포를 구성하는 주요 유기 화합물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 섭취에너지의 15~25% 권장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 아미노산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체중당 0.8~1g 권장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로 해소를 위한 필수 영양소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지질(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 아미노산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그네슘(㎎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참기름</t>
+  </si>
+  <si>
+    <t>육류</t>
+  </si>
+  <si>
+    <t>12.84</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>17908</t>
+  </si>
+  <si>
+    <t>8984</t>
+  </si>
+  <si>
+    <t>액체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소류</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>7.23</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>87.24</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>배추 김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김칫국물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지류</t>
+  </si>
+  <si>
+    <t>99.59</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>41.62</t>
+  </si>
+  <si>
+    <t>5.74</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>양파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추(초록색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.753</t>
+  </si>
+  <si>
+    <t>9.38</t>
+  </si>
+  <si>
+    <t>87.54</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>대파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조미료류</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>21.84</t>
+  </si>
+  <si>
+    <t>2486</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>15.67</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>고추장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>5476</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>30.67</t>
+  </si>
+  <si>
+    <t>20.27</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>5172</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>국간장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소금</t>
+  </si>
+  <si>
+    <t>33597</t>
+  </si>
+  <si>
+    <t>https://www.10000recipe.com/recipe/1785098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,6 +2275,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1816,12 +2307,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,9 +2325,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2113,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3550,7 +4049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4014,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4316,35 +4815,57 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>561</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>563</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>315</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C31" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4879,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4398,7 +4919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -4880,15 +5401,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -4908,133 +5429,1187 @@
         <v>473</v>
       </c>
       <c r="G1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H1" t="s">
         <v>474</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>475</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>476</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>290</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>295</v>
+      </c>
+      <c r="R1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T1" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" t="s">
+        <v>477</v>
+      </c>
+      <c r="X1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3">
+        <v>19.45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>571</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K3" t="s">
+        <v>529</v>
+      </c>
+      <c r="L3" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" t="s">
+        <v>538</v>
+      </c>
+      <c r="N3">
+        <v>186</v>
+      </c>
+      <c r="O3">
+        <v>318</v>
+      </c>
+      <c r="P3" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>572</v>
+      </c>
+      <c r="R3" t="s">
+        <v>573</v>
+      </c>
+      <c r="S3" t="s">
+        <v>574</v>
+      </c>
+      <c r="T3" t="s">
+        <v>575</v>
+      </c>
+      <c r="U3" t="s">
+        <v>576</v>
+      </c>
+      <c r="V3" t="s">
+        <v>535</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4">
+        <v>1.97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6.24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" t="s">
+        <v>583</v>
+      </c>
+      <c r="K4" t="s">
+        <v>584</v>
+      </c>
+      <c r="L4" t="s">
+        <v>546</v>
+      </c>
+      <c r="M4" t="s">
+        <v>536</v>
+      </c>
+      <c r="N4">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>355</v>
+      </c>
+      <c r="P4" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>540</v>
+      </c>
+      <c r="R4" t="s">
+        <v>573</v>
+      </c>
+      <c r="S4" t="s">
+        <v>586</v>
+      </c>
+      <c r="T4" t="s">
+        <v>587</v>
+      </c>
+      <c r="U4" t="s">
+        <v>588</v>
+      </c>
+      <c r="V4" t="s">
+        <v>589</v>
+      </c>
+      <c r="W4">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6">
+        <v>917</v>
+      </c>
+      <c r="D6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J6" t="s">
+        <v>493</v>
+      </c>
+      <c r="K6" t="s">
+        <v>600</v>
+      </c>
+      <c r="L6" t="s">
+        <v>601</v>
+      </c>
+      <c r="M6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N6">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>519</v>
+      </c>
+      <c r="R6" t="s">
+        <v>547</v>
+      </c>
+      <c r="S6" t="s">
+        <v>602</v>
+      </c>
+      <c r="T6" t="s">
+        <v>493</v>
+      </c>
+      <c r="U6" t="s">
+        <v>493</v>
+      </c>
+      <c r="V6" t="s">
+        <v>493</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>524</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7">
+        <v>0.95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6.67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>606</v>
+      </c>
+      <c r="J7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M7" t="s">
+        <v>530</v>
+      </c>
+      <c r="N7">
+        <v>27</v>
+      </c>
+      <c r="O7">
+        <v>145</v>
+      </c>
+      <c r="P7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>548</v>
+      </c>
+      <c r="R7" t="s">
+        <v>501</v>
+      </c>
+      <c r="S7" t="s">
+        <v>607</v>
+      </c>
+      <c r="T7" t="s">
+        <v>608</v>
+      </c>
+      <c r="U7" t="s">
+        <v>604</v>
+      </c>
+      <c r="V7" t="s">
+        <v>493</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>527</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>504</v>
+      </c>
+      <c r="L8" t="s">
+        <v>549</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>39</v>
+      </c>
+      <c r="O8">
+        <v>162</v>
+      </c>
+      <c r="P8" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9">
+        <v>1.78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>522</v>
+      </c>
+      <c r="J9" t="s">
+        <v>545</v>
+      </c>
+      <c r="K9" t="s">
+        <v>525</v>
+      </c>
+      <c r="L9" t="s">
+        <v>507</v>
+      </c>
+      <c r="M9" t="s">
+        <v>499</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>181</v>
+      </c>
+      <c r="P9" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>615</v>
+      </c>
+      <c r="R9" t="s">
+        <v>494</v>
+      </c>
+      <c r="S9" t="s">
+        <v>616</v>
+      </c>
+      <c r="T9" t="s">
+        <v>493</v>
+      </c>
+      <c r="U9" t="s">
+        <v>502</v>
+      </c>
+      <c r="V9" t="s">
+        <v>617</v>
+      </c>
+      <c r="W9">
+        <v>23</v>
+      </c>
+      <c r="X9" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10">
+        <v>3.66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>623</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>51.76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>624</v>
+      </c>
+      <c r="J10" t="s">
+        <v>537</v>
+      </c>
+      <c r="K10" t="s">
+        <v>536</v>
+      </c>
+      <c r="L10" t="s">
+        <v>505</v>
+      </c>
+      <c r="M10" t="s">
+        <v>554</v>
+      </c>
+      <c r="N10">
+        <v>63</v>
+      </c>
+      <c r="O10">
+        <v>422</v>
+      </c>
+      <c r="P10" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>509</v>
+      </c>
+      <c r="R10" t="s">
+        <v>523</v>
+      </c>
+      <c r="S10" t="s">
+        <v>626</v>
+      </c>
+      <c r="T10" t="s">
+        <v>627</v>
+      </c>
+      <c r="U10" t="s">
+        <v>628</v>
+      </c>
+      <c r="V10" t="s">
+        <v>493</v>
+      </c>
+      <c r="W10">
         <v>291</v>
       </c>
-      <c r="M1" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" t="s">
-        <v>293</v>
-      </c>
-      <c r="O1" t="s">
-        <v>294</v>
-      </c>
-      <c r="P1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>296</v>
-      </c>
-      <c r="R1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S1" t="s">
-        <v>298</v>
-      </c>
-      <c r="T1" t="s">
-        <v>299</v>
-      </c>
-      <c r="U1" t="s">
-        <v>300</v>
-      </c>
-      <c r="V1" t="s">
-        <v>477</v>
-      </c>
-      <c r="W1" t="s">
-        <v>478</v>
-      </c>
-      <c r="X1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>484</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="X10" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>631</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>492</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E11">
+        <v>7.41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>555</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5.59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>634</v>
+      </c>
+      <c r="J11" t="s">
+        <v>549</v>
+      </c>
+      <c r="K11" t="s">
+        <v>536</v>
+      </c>
+      <c r="L11" t="s">
+        <v>635</v>
+      </c>
+      <c r="M11" t="s">
+        <v>550</v>
+      </c>
+      <c r="N11">
+        <v>127</v>
+      </c>
+      <c r="O11">
+        <v>422</v>
+      </c>
+      <c r="P11" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>541</v>
+      </c>
+      <c r="R11" t="s">
         <v>493</v>
       </c>
-      <c r="C2">
-        <v>382</v>
-      </c>
-      <c r="D2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2">
-        <v>13.2</v>
-      </c>
-      <c r="F2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G2">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="I2">
-        <v>18.8</v>
-      </c>
-      <c r="J2">
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <v>5.8</v>
-      </c>
-      <c r="M2">
-        <v>381</v>
-      </c>
-      <c r="N2">
-        <v>383</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>7.0000000000000007E-2</v>
+      <c r="S11" t="s">
+        <v>637</v>
+      </c>
+      <c r="T11" t="s">
+        <v>638</v>
+      </c>
+      <c r="U11" t="s">
+        <v>639</v>
+      </c>
+      <c r="V11" t="s">
+        <v>553</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>642</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>643</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>512</v>
+      </c>
+      <c r="L12" t="s">
+        <v>517</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5049,4 +6624,31 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/initialData.xlsx
+++ b/initialData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="2079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="2279">
   <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7149,6 +7149,606 @@
   <si>
     <t>카레</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user101</t>
+  </si>
+  <si>
+    <t>사용자101</t>
+  </si>
+  <si>
+    <t>user102</t>
+  </si>
+  <si>
+    <t>사용자102</t>
+  </si>
+  <si>
+    <t>user103</t>
+  </si>
+  <si>
+    <t>사용자103</t>
+  </si>
+  <si>
+    <t>user104</t>
+  </si>
+  <si>
+    <t>사용자104</t>
+  </si>
+  <si>
+    <t>user105</t>
+  </si>
+  <si>
+    <t>사용자105</t>
+  </si>
+  <si>
+    <t>user106</t>
+  </si>
+  <si>
+    <t>사용자106</t>
+  </si>
+  <si>
+    <t>user107</t>
+  </si>
+  <si>
+    <t>사용자107</t>
+  </si>
+  <si>
+    <t>user108</t>
+  </si>
+  <si>
+    <t>사용자108</t>
+  </si>
+  <si>
+    <t>user109</t>
+  </si>
+  <si>
+    <t>사용자109</t>
+  </si>
+  <si>
+    <t>user110</t>
+  </si>
+  <si>
+    <t>사용자110</t>
+  </si>
+  <si>
+    <t>user111</t>
+  </si>
+  <si>
+    <t>사용자111</t>
+  </si>
+  <si>
+    <t>user112</t>
+  </si>
+  <si>
+    <t>사용자112</t>
+  </si>
+  <si>
+    <t>user113</t>
+  </si>
+  <si>
+    <t>사용자113</t>
+  </si>
+  <si>
+    <t>user114</t>
+  </si>
+  <si>
+    <t>사용자114</t>
+  </si>
+  <si>
+    <t>user115</t>
+  </si>
+  <si>
+    <t>사용자115</t>
+  </si>
+  <si>
+    <t>user116</t>
+  </si>
+  <si>
+    <t>사용자116</t>
+  </si>
+  <si>
+    <t>user117</t>
+  </si>
+  <si>
+    <t>사용자117</t>
+  </si>
+  <si>
+    <t>user118</t>
+  </si>
+  <si>
+    <t>사용자118</t>
+  </si>
+  <si>
+    <t>user119</t>
+  </si>
+  <si>
+    <t>사용자119</t>
+  </si>
+  <si>
+    <t>user120</t>
+  </si>
+  <si>
+    <t>사용자120</t>
+  </si>
+  <si>
+    <t>user121</t>
+  </si>
+  <si>
+    <t>사용자121</t>
+  </si>
+  <si>
+    <t>user122</t>
+  </si>
+  <si>
+    <t>사용자122</t>
+  </si>
+  <si>
+    <t>user123</t>
+  </si>
+  <si>
+    <t>사용자123</t>
+  </si>
+  <si>
+    <t>user124</t>
+  </si>
+  <si>
+    <t>사용자124</t>
+  </si>
+  <si>
+    <t>user125</t>
+  </si>
+  <si>
+    <t>사용자125</t>
+  </si>
+  <si>
+    <t>user126</t>
+  </si>
+  <si>
+    <t>사용자126</t>
+  </si>
+  <si>
+    <t>user127</t>
+  </si>
+  <si>
+    <t>사용자127</t>
+  </si>
+  <si>
+    <t>user128</t>
+  </si>
+  <si>
+    <t>사용자128</t>
+  </si>
+  <si>
+    <t>user129</t>
+  </si>
+  <si>
+    <t>사용자129</t>
+  </si>
+  <si>
+    <t>user130</t>
+  </si>
+  <si>
+    <t>사용자130</t>
+  </si>
+  <si>
+    <t>user131</t>
+  </si>
+  <si>
+    <t>사용자131</t>
+  </si>
+  <si>
+    <t>user132</t>
+  </si>
+  <si>
+    <t>사용자132</t>
+  </si>
+  <si>
+    <t>user133</t>
+  </si>
+  <si>
+    <t>사용자133</t>
+  </si>
+  <si>
+    <t>user134</t>
+  </si>
+  <si>
+    <t>사용자134</t>
+  </si>
+  <si>
+    <t>user135</t>
+  </si>
+  <si>
+    <t>사용자135</t>
+  </si>
+  <si>
+    <t>user136</t>
+  </si>
+  <si>
+    <t>사용자136</t>
+  </si>
+  <si>
+    <t>user137</t>
+  </si>
+  <si>
+    <t>사용자137</t>
+  </si>
+  <si>
+    <t>user138</t>
+  </si>
+  <si>
+    <t>사용자138</t>
+  </si>
+  <si>
+    <t>user139</t>
+  </si>
+  <si>
+    <t>사용자139</t>
+  </si>
+  <si>
+    <t>user140</t>
+  </si>
+  <si>
+    <t>사용자140</t>
+  </si>
+  <si>
+    <t>user141</t>
+  </si>
+  <si>
+    <t>사용자141</t>
+  </si>
+  <si>
+    <t>user142</t>
+  </si>
+  <si>
+    <t>사용자142</t>
+  </si>
+  <si>
+    <t>user143</t>
+  </si>
+  <si>
+    <t>사용자143</t>
+  </si>
+  <si>
+    <t>user144</t>
+  </si>
+  <si>
+    <t>사용자144</t>
+  </si>
+  <si>
+    <t>user145</t>
+  </si>
+  <si>
+    <t>사용자145</t>
+  </si>
+  <si>
+    <t>user146</t>
+  </si>
+  <si>
+    <t>사용자146</t>
+  </si>
+  <si>
+    <t>user147</t>
+  </si>
+  <si>
+    <t>사용자147</t>
+  </si>
+  <si>
+    <t>user148</t>
+  </si>
+  <si>
+    <t>사용자148</t>
+  </si>
+  <si>
+    <t>user149</t>
+  </si>
+  <si>
+    <t>사용자149</t>
+  </si>
+  <si>
+    <t>user150</t>
+  </si>
+  <si>
+    <t>사용자150</t>
+  </si>
+  <si>
+    <t>user151</t>
+  </si>
+  <si>
+    <t>사용자151</t>
+  </si>
+  <si>
+    <t>user152</t>
+  </si>
+  <si>
+    <t>사용자152</t>
+  </si>
+  <si>
+    <t>user153</t>
+  </si>
+  <si>
+    <t>사용자153</t>
+  </si>
+  <si>
+    <t>user154</t>
+  </si>
+  <si>
+    <t>사용자154</t>
+  </si>
+  <si>
+    <t>user155</t>
+  </si>
+  <si>
+    <t>사용자155</t>
+  </si>
+  <si>
+    <t>user156</t>
+  </si>
+  <si>
+    <t>사용자156</t>
+  </si>
+  <si>
+    <t>user157</t>
+  </si>
+  <si>
+    <t>사용자157</t>
+  </si>
+  <si>
+    <t>user158</t>
+  </si>
+  <si>
+    <t>사용자158</t>
+  </si>
+  <si>
+    <t>user159</t>
+  </si>
+  <si>
+    <t>사용자159</t>
+  </si>
+  <si>
+    <t>user160</t>
+  </si>
+  <si>
+    <t>사용자160</t>
+  </si>
+  <si>
+    <t>user161</t>
+  </si>
+  <si>
+    <t>사용자161</t>
+  </si>
+  <si>
+    <t>user162</t>
+  </si>
+  <si>
+    <t>사용자162</t>
+  </si>
+  <si>
+    <t>user163</t>
+  </si>
+  <si>
+    <t>사용자163</t>
+  </si>
+  <si>
+    <t>user164</t>
+  </si>
+  <si>
+    <t>사용자164</t>
+  </si>
+  <si>
+    <t>user165</t>
+  </si>
+  <si>
+    <t>사용자165</t>
+  </si>
+  <si>
+    <t>user166</t>
+  </si>
+  <si>
+    <t>사용자166</t>
+  </si>
+  <si>
+    <t>user167</t>
+  </si>
+  <si>
+    <t>사용자167</t>
+  </si>
+  <si>
+    <t>user168</t>
+  </si>
+  <si>
+    <t>사용자168</t>
+  </si>
+  <si>
+    <t>user169</t>
+  </si>
+  <si>
+    <t>사용자169</t>
+  </si>
+  <si>
+    <t>user170</t>
+  </si>
+  <si>
+    <t>사용자170</t>
+  </si>
+  <si>
+    <t>user171</t>
+  </si>
+  <si>
+    <t>사용자171</t>
+  </si>
+  <si>
+    <t>user172</t>
+  </si>
+  <si>
+    <t>사용자172</t>
+  </si>
+  <si>
+    <t>user173</t>
+  </si>
+  <si>
+    <t>사용자173</t>
+  </si>
+  <si>
+    <t>user174</t>
+  </si>
+  <si>
+    <t>사용자174</t>
+  </si>
+  <si>
+    <t>user175</t>
+  </si>
+  <si>
+    <t>사용자175</t>
+  </si>
+  <si>
+    <t>user176</t>
+  </si>
+  <si>
+    <t>사용자176</t>
+  </si>
+  <si>
+    <t>user177</t>
+  </si>
+  <si>
+    <t>사용자177</t>
+  </si>
+  <si>
+    <t>user178</t>
+  </si>
+  <si>
+    <t>사용자178</t>
+  </si>
+  <si>
+    <t>user179</t>
+  </si>
+  <si>
+    <t>사용자179</t>
+  </si>
+  <si>
+    <t>user180</t>
+  </si>
+  <si>
+    <t>사용자180</t>
+  </si>
+  <si>
+    <t>user181</t>
+  </si>
+  <si>
+    <t>사용자181</t>
+  </si>
+  <si>
+    <t>user182</t>
+  </si>
+  <si>
+    <t>사용자182</t>
+  </si>
+  <si>
+    <t>user183</t>
+  </si>
+  <si>
+    <t>사용자183</t>
+  </si>
+  <si>
+    <t>user184</t>
+  </si>
+  <si>
+    <t>사용자184</t>
+  </si>
+  <si>
+    <t>user185</t>
+  </si>
+  <si>
+    <t>사용자185</t>
+  </si>
+  <si>
+    <t>user186</t>
+  </si>
+  <si>
+    <t>사용자186</t>
+  </si>
+  <si>
+    <t>user187</t>
+  </si>
+  <si>
+    <t>사용자187</t>
+  </si>
+  <si>
+    <t>user188</t>
+  </si>
+  <si>
+    <t>사용자188</t>
+  </si>
+  <si>
+    <t>user189</t>
+  </si>
+  <si>
+    <t>사용자189</t>
+  </si>
+  <si>
+    <t>user190</t>
+  </si>
+  <si>
+    <t>사용자190</t>
+  </si>
+  <si>
+    <t>user191</t>
+  </si>
+  <si>
+    <t>사용자191</t>
+  </si>
+  <si>
+    <t>user192</t>
+  </si>
+  <si>
+    <t>사용자192</t>
+  </si>
+  <si>
+    <t>user193</t>
+  </si>
+  <si>
+    <t>사용자193</t>
+  </si>
+  <si>
+    <t>user194</t>
+  </si>
+  <si>
+    <t>사용자194</t>
+  </si>
+  <si>
+    <t>user195</t>
+  </si>
+  <si>
+    <t>사용자195</t>
+  </si>
+  <si>
+    <t>user196</t>
+  </si>
+  <si>
+    <t>사용자196</t>
+  </si>
+  <si>
+    <t>user197</t>
+  </si>
+  <si>
+    <t>사용자197</t>
+  </si>
+  <si>
+    <t>user198</t>
+  </si>
+  <si>
+    <t>사용자198</t>
+  </si>
+  <si>
+    <t>user199</t>
+  </si>
+  <si>
+    <t>사용자199</t>
+  </si>
+  <si>
+    <t>user200</t>
+  </si>
+  <si>
+    <t>사용자200</t>
   </si>
 </sst>
 </file>
@@ -7495,9 +8095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8912,6 +9514,1406 @@
         <v>203</v>
       </c>
       <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D201">
         <v>1</v>
       </c>
     </row>
@@ -10312,7 +12314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
@@ -21682,8 +23684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
